--- a/wgr_rankings.xlsx
+++ b/wgr_rankings.xlsx
@@ -420,9 +420,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>